--- a/archive/src/main/resources/template/importCustomers.xlsx
+++ b/archive/src/main/resources/template/importCustomers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>模板填写须知：</t>
   </si>
@@ -98,9 +98,6 @@
     <t>关联房屋id4</t>
   </si>
   <si>
-    <t>关联房屋5</t>
-  </si>
-  <si>
     <t>关联房屋id5</t>
   </si>
 </sst>
@@ -113,7 +110,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1312,10 +1309,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH199"/>
+  <dimension ref="A1:AG199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD$1:AD$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1341,15 +1338,14 @@
     <col min="27" max="27" width="5.625" style="1" customWidth="1"/>
     <col min="28" max="28" width="12.625" style="2" customWidth="1"/>
     <col min="29" max="29" width="14.375" style="2" customWidth="1"/>
-    <col min="30" max="30" width="11.125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="15.875" style="1" customWidth="1"/>
-    <col min="32" max="32" width="5.625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5" style="2" customWidth="1"/>
-    <col min="34" max="34" width="13.25" style="2" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="1"/>
+    <col min="30" max="30" width="15.875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="5.625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5" style="2" customWidth="1"/>
+    <col min="33" max="33" width="13.25" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1" spans="1:34">
+    <row r="1" ht="26" customHeight="1" spans="1:33">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1381,13 +1377,12 @@
       <c r="AA1" s="12"/>
       <c r="AB1" s="11"/>
       <c r="AC1" s="11"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="7"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="11"/>
       <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-    </row>
-    <row r="2" ht="61" customHeight="1" spans="1:34">
+    </row>
+    <row r="2" ht="61" customHeight="1" spans="1:33">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1419,13 +1414,12 @@
       <c r="AA2" s="12"/>
       <c r="AB2" s="11"/>
       <c r="AC2" s="11"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="7"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" spans="1:34">
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:33">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1513,23 +1507,20 @@
       <c r="AC3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AD3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AG3" s="10" t="s">
+      <c r="AF3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AG3" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:33">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1561,11 +1552,10 @@
       <c r="AC4" s="11"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
+      <c r="AF4" s="11"/>
       <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-    </row>
-    <row r="5" spans="1:34">
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1597,11 +1587,10 @@
       <c r="AC5" s="11"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
+      <c r="AF5" s="11"/>
       <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-    </row>
-    <row r="6" spans="1:34">
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1633,11 +1622,10 @@
       <c r="AC6" s="11"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
+      <c r="AF6" s="11"/>
       <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-    </row>
-    <row r="7" spans="1:34">
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1669,11 +1657,10 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
+      <c r="AF7" s="11"/>
       <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-    </row>
-    <row r="8" spans="1:34">
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1705,11 +1692,10 @@
       <c r="AC8" s="11"/>
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
+      <c r="AF8" s="11"/>
       <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-    </row>
-    <row r="9" spans="1:34">
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1741,11 +1727,10 @@
       <c r="AC9" s="11"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
+      <c r="AF9" s="11"/>
       <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-    </row>
-    <row r="10" spans="1:34">
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1777,11 +1762,10 @@
       <c r="AC10" s="11"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
+      <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-    </row>
-    <row r="11" spans="1:34">
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1813,11 +1797,10 @@
       <c r="AC11" s="11"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
+      <c r="AF11" s="11"/>
       <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-    </row>
-    <row r="12" spans="1:34">
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1849,11 +1832,10 @@
       <c r="AC12" s="11"/>
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
+      <c r="AF12" s="11"/>
       <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-    </row>
-    <row r="13" spans="1:34">
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1885,11 +1867,10 @@
       <c r="AC13" s="11"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
+      <c r="AF13" s="11"/>
       <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-    </row>
-    <row r="14" spans="1:34">
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1921,11 +1902,10 @@
       <c r="AC14" s="11"/>
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
+      <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-    </row>
-    <row r="15" spans="1:34">
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1957,11 +1937,10 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
+      <c r="AF15" s="11"/>
       <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-    </row>
-    <row r="16" spans="1:34">
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1993,11 +1972,10 @@
       <c r="AC16" s="11"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
+      <c r="AF16" s="11"/>
       <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-    </row>
-    <row r="17" spans="1:34">
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2029,11 +2007,10 @@
       <c r="AC17" s="11"/>
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
+      <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-    </row>
-    <row r="18" spans="1:34">
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2065,11 +2042,10 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
+      <c r="AF18" s="11"/>
       <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-    </row>
-    <row r="19" spans="1:34">
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2101,11 +2077,10 @@
       <c r="AC19" s="11"/>
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
+      <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-    </row>
-    <row r="20" spans="1:34">
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2137,11 +2112,10 @@
       <c r="AC20" s="11"/>
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
+      <c r="AF20" s="11"/>
       <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-    </row>
-    <row r="21" spans="1:34">
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2173,11 +2147,10 @@
       <c r="AC21" s="11"/>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
+      <c r="AF21" s="11"/>
       <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-    </row>
-    <row r="22" spans="1:34">
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2209,11 +2182,10 @@
       <c r="AC22" s="11"/>
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
+      <c r="AF22" s="11"/>
       <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-    </row>
-    <row r="23" spans="1:34">
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2245,11 +2217,10 @@
       <c r="AC23" s="11"/>
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
+      <c r="AF23" s="11"/>
       <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-    </row>
-    <row r="24" spans="1:34">
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2281,11 +2252,10 @@
       <c r="AC24" s="11"/>
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
+      <c r="AF24" s="11"/>
       <c r="AG24" s="11"/>
-      <c r="AH24" s="11"/>
-    </row>
-    <row r="25" spans="1:34">
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2317,11 +2287,10 @@
       <c r="AC25" s="11"/>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
+      <c r="AF25" s="11"/>
       <c r="AG25" s="11"/>
-      <c r="AH25" s="11"/>
-    </row>
-    <row r="26" spans="1:34">
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2353,11 +2322,10 @@
       <c r="AC26" s="11"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
-      <c r="AF26" s="7"/>
+      <c r="AF26" s="11"/>
       <c r="AG26" s="11"/>
-      <c r="AH26" s="11"/>
-    </row>
-    <row r="27" spans="1:34">
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2389,11 +2357,10 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
+      <c r="AF27" s="11"/>
       <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-    </row>
-    <row r="28" spans="1:34">
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2425,11 +2392,10 @@
       <c r="AC28" s="11"/>
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
+      <c r="AF28" s="11"/>
       <c r="AG28" s="11"/>
-      <c r="AH28" s="11"/>
-    </row>
-    <row r="29" spans="1:34">
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2461,11 +2427,10 @@
       <c r="AC29" s="11"/>
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
-      <c r="AF29" s="7"/>
+      <c r="AF29" s="11"/>
       <c r="AG29" s="11"/>
-      <c r="AH29" s="11"/>
-    </row>
-    <row r="30" spans="1:34">
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2497,11 +2462,10 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
+      <c r="AF30" s="11"/>
       <c r="AG30" s="11"/>
-      <c r="AH30" s="11"/>
-    </row>
-    <row r="31" spans="1:34">
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2533,11 +2497,10 @@
       <c r="AC31" s="11"/>
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
+      <c r="AF31" s="11"/>
       <c r="AG31" s="11"/>
-      <c r="AH31" s="11"/>
-    </row>
-    <row r="32" spans="1:34">
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2569,11 +2532,10 @@
       <c r="AC32" s="11"/>
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
+      <c r="AF32" s="11"/>
       <c r="AG32" s="11"/>
-      <c r="AH32" s="11"/>
-    </row>
-    <row r="33" spans="1:34">
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -2605,11 +2567,10 @@
       <c r="AC33" s="11"/>
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
+      <c r="AF33" s="11"/>
       <c r="AG33" s="11"/>
-      <c r="AH33" s="11"/>
-    </row>
-    <row r="34" spans="1:34">
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -2641,11 +2602,10 @@
       <c r="AC34" s="11"/>
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
+      <c r="AF34" s="11"/>
       <c r="AG34" s="11"/>
-      <c r="AH34" s="11"/>
-    </row>
-    <row r="35" spans="1:34">
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -2677,11 +2637,10 @@
       <c r="AC35" s="11"/>
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
+      <c r="AF35" s="11"/>
       <c r="AG35" s="11"/>
-      <c r="AH35" s="11"/>
-    </row>
-    <row r="36" spans="1:34">
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2713,11 +2672,10 @@
       <c r="AC36" s="11"/>
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
-      <c r="AF36" s="7"/>
+      <c r="AF36" s="11"/>
       <c r="AG36" s="11"/>
-      <c r="AH36" s="11"/>
-    </row>
-    <row r="37" spans="1:34">
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2749,11 +2707,10 @@
       <c r="AC37" s="11"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
-      <c r="AF37" s="7"/>
+      <c r="AF37" s="11"/>
       <c r="AG37" s="11"/>
-      <c r="AH37" s="11"/>
-    </row>
-    <row r="38" spans="1:34">
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2785,11 +2742,10 @@
       <c r="AC38" s="11"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
+      <c r="AF38" s="11"/>
       <c r="AG38" s="11"/>
-      <c r="AH38" s="11"/>
-    </row>
-    <row r="39" spans="1:34">
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2821,11 +2777,10 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
+      <c r="AF39" s="11"/>
       <c r="AG39" s="11"/>
-      <c r="AH39" s="11"/>
-    </row>
-    <row r="40" spans="1:34">
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2857,11 +2812,10 @@
       <c r="AC40" s="11"/>
       <c r="AD40" s="7"/>
       <c r="AE40" s="7"/>
-      <c r="AF40" s="7"/>
+      <c r="AF40" s="11"/>
       <c r="AG40" s="11"/>
-      <c r="AH40" s="11"/>
-    </row>
-    <row r="41" spans="1:34">
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -2893,11 +2847,10 @@
       <c r="AC41" s="11"/>
       <c r="AD41" s="7"/>
       <c r="AE41" s="7"/>
-      <c r="AF41" s="7"/>
+      <c r="AF41" s="11"/>
       <c r="AG41" s="11"/>
-      <c r="AH41" s="11"/>
-    </row>
-    <row r="42" spans="1:34">
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -2929,11 +2882,10 @@
       <c r="AC42" s="11"/>
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
-      <c r="AF42" s="7"/>
+      <c r="AF42" s="11"/>
       <c r="AG42" s="11"/>
-      <c r="AH42" s="11"/>
-    </row>
-    <row r="43" spans="1:34">
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2965,11 +2917,10 @@
       <c r="AC43" s="11"/>
       <c r="AD43" s="7"/>
       <c r="AE43" s="7"/>
-      <c r="AF43" s="7"/>
+      <c r="AF43" s="11"/>
       <c r="AG43" s="11"/>
-      <c r="AH43" s="11"/>
-    </row>
-    <row r="44" spans="1:34">
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -3001,11 +2952,10 @@
       <c r="AC44" s="11"/>
       <c r="AD44" s="7"/>
       <c r="AE44" s="7"/>
-      <c r="AF44" s="7"/>
+      <c r="AF44" s="11"/>
       <c r="AG44" s="11"/>
-      <c r="AH44" s="11"/>
-    </row>
-    <row r="45" spans="1:34">
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -3037,11 +2987,10 @@
       <c r="AC45" s="11"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
+      <c r="AF45" s="11"/>
       <c r="AG45" s="11"/>
-      <c r="AH45" s="11"/>
-    </row>
-    <row r="46" spans="1:34">
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -3073,11 +3022,10 @@
       <c r="AC46" s="11"/>
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
-      <c r="AF46" s="7"/>
+      <c r="AF46" s="11"/>
       <c r="AG46" s="11"/>
-      <c r="AH46" s="11"/>
-    </row>
-    <row r="47" spans="1:34">
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -3109,11 +3057,10 @@
       <c r="AC47" s="11"/>
       <c r="AD47" s="7"/>
       <c r="AE47" s="7"/>
-      <c r="AF47" s="7"/>
+      <c r="AF47" s="11"/>
       <c r="AG47" s="11"/>
-      <c r="AH47" s="11"/>
-    </row>
-    <row r="48" spans="1:34">
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -3145,11 +3092,10 @@
       <c r="AC48" s="11"/>
       <c r="AD48" s="7"/>
       <c r="AE48" s="7"/>
-      <c r="AF48" s="7"/>
+      <c r="AF48" s="11"/>
       <c r="AG48" s="11"/>
-      <c r="AH48" s="11"/>
-    </row>
-    <row r="49" spans="1:34">
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -3181,11 +3127,10 @@
       <c r="AC49" s="11"/>
       <c r="AD49" s="7"/>
       <c r="AE49" s="7"/>
-      <c r="AF49" s="7"/>
+      <c r="AF49" s="11"/>
       <c r="AG49" s="11"/>
-      <c r="AH49" s="11"/>
-    </row>
-    <row r="50" spans="1:34">
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -3217,11 +3162,10 @@
       <c r="AC50" s="11"/>
       <c r="AD50" s="7"/>
       <c r="AE50" s="7"/>
-      <c r="AF50" s="7"/>
+      <c r="AF50" s="11"/>
       <c r="AG50" s="11"/>
-      <c r="AH50" s="11"/>
-    </row>
-    <row r="51" spans="1:34">
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -3253,11 +3197,10 @@
       <c r="AC51" s="11"/>
       <c r="AD51" s="7"/>
       <c r="AE51" s="7"/>
-      <c r="AF51" s="7"/>
+      <c r="AF51" s="11"/>
       <c r="AG51" s="11"/>
-      <c r="AH51" s="11"/>
-    </row>
-    <row r="52" spans="1:34">
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -3289,11 +3232,10 @@
       <c r="AC52" s="11"/>
       <c r="AD52" s="7"/>
       <c r="AE52" s="7"/>
-      <c r="AF52" s="7"/>
+      <c r="AF52" s="11"/>
       <c r="AG52" s="11"/>
-      <c r="AH52" s="11"/>
-    </row>
-    <row r="53" spans="1:34">
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -3325,11 +3267,10 @@
       <c r="AC53" s="11"/>
       <c r="AD53" s="7"/>
       <c r="AE53" s="7"/>
-      <c r="AF53" s="7"/>
+      <c r="AF53" s="11"/>
       <c r="AG53" s="11"/>
-      <c r="AH53" s="11"/>
-    </row>
-    <row r="54" spans="1:34">
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -3361,11 +3302,10 @@
       <c r="AC54" s="11"/>
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
-      <c r="AF54" s="7"/>
+      <c r="AF54" s="11"/>
       <c r="AG54" s="11"/>
-      <c r="AH54" s="11"/>
-    </row>
-    <row r="55" spans="1:34">
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -3397,11 +3337,10 @@
       <c r="AC55" s="11"/>
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
-      <c r="AF55" s="7"/>
+      <c r="AF55" s="11"/>
       <c r="AG55" s="11"/>
-      <c r="AH55" s="11"/>
-    </row>
-    <row r="56" spans="1:34">
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -3433,11 +3372,10 @@
       <c r="AC56" s="11"/>
       <c r="AD56" s="7"/>
       <c r="AE56" s="7"/>
-      <c r="AF56" s="7"/>
+      <c r="AF56" s="11"/>
       <c r="AG56" s="11"/>
-      <c r="AH56" s="11"/>
-    </row>
-    <row r="57" spans="1:34">
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -3469,11 +3407,10 @@
       <c r="AC57" s="11"/>
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
-      <c r="AF57" s="7"/>
+      <c r="AF57" s="11"/>
       <c r="AG57" s="11"/>
-      <c r="AH57" s="11"/>
-    </row>
-    <row r="58" spans="1:34">
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -3505,11 +3442,10 @@
       <c r="AC58" s="11"/>
       <c r="AD58" s="7"/>
       <c r="AE58" s="7"/>
-      <c r="AF58" s="7"/>
+      <c r="AF58" s="11"/>
       <c r="AG58" s="11"/>
-      <c r="AH58" s="11"/>
-    </row>
-    <row r="59" spans="1:34">
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -3541,11 +3477,10 @@
       <c r="AC59" s="11"/>
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
-      <c r="AF59" s="7"/>
+      <c r="AF59" s="11"/>
       <c r="AG59" s="11"/>
-      <c r="AH59" s="11"/>
-    </row>
-    <row r="60" spans="1:34">
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -3577,11 +3512,10 @@
       <c r="AC60" s="11"/>
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
-      <c r="AF60" s="7"/>
+      <c r="AF60" s="11"/>
       <c r="AG60" s="11"/>
-      <c r="AH60" s="11"/>
-    </row>
-    <row r="61" spans="1:34">
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -3613,11 +3547,10 @@
       <c r="AC61" s="11"/>
       <c r="AD61" s="7"/>
       <c r="AE61" s="7"/>
-      <c r="AF61" s="7"/>
+      <c r="AF61" s="11"/>
       <c r="AG61" s="11"/>
-      <c r="AH61" s="11"/>
-    </row>
-    <row r="62" spans="1:34">
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -3649,11 +3582,10 @@
       <c r="AC62" s="11"/>
       <c r="AD62" s="7"/>
       <c r="AE62" s="7"/>
-      <c r="AF62" s="7"/>
+      <c r="AF62" s="11"/>
       <c r="AG62" s="11"/>
-      <c r="AH62" s="11"/>
-    </row>
-    <row r="63" spans="1:34">
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -3685,11 +3617,10 @@
       <c r="AC63" s="11"/>
       <c r="AD63" s="7"/>
       <c r="AE63" s="7"/>
-      <c r="AF63" s="7"/>
+      <c r="AF63" s="11"/>
       <c r="AG63" s="11"/>
-      <c r="AH63" s="11"/>
-    </row>
-    <row r="64" spans="1:34">
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -3721,11 +3652,10 @@
       <c r="AC64" s="11"/>
       <c r="AD64" s="7"/>
       <c r="AE64" s="7"/>
-      <c r="AF64" s="7"/>
+      <c r="AF64" s="11"/>
       <c r="AG64" s="11"/>
-      <c r="AH64" s="11"/>
-    </row>
-    <row r="65" spans="1:34">
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -3757,11 +3687,10 @@
       <c r="AC65" s="11"/>
       <c r="AD65" s="7"/>
       <c r="AE65" s="7"/>
-      <c r="AF65" s="7"/>
+      <c r="AF65" s="11"/>
       <c r="AG65" s="11"/>
-      <c r="AH65" s="11"/>
-    </row>
-    <row r="66" spans="1:34">
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -3793,11 +3722,10 @@
       <c r="AC66" s="11"/>
       <c r="AD66" s="7"/>
       <c r="AE66" s="7"/>
-      <c r="AF66" s="7"/>
+      <c r="AF66" s="11"/>
       <c r="AG66" s="11"/>
-      <c r="AH66" s="11"/>
-    </row>
-    <row r="67" spans="1:34">
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3829,11 +3757,10 @@
       <c r="AC67" s="11"/>
       <c r="AD67" s="7"/>
       <c r="AE67" s="7"/>
-      <c r="AF67" s="7"/>
+      <c r="AF67" s="11"/>
       <c r="AG67" s="11"/>
-      <c r="AH67" s="11"/>
-    </row>
-    <row r="68" spans="1:34">
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3865,11 +3792,10 @@
       <c r="AC68" s="11"/>
       <c r="AD68" s="7"/>
       <c r="AE68" s="7"/>
-      <c r="AF68" s="7"/>
+      <c r="AF68" s="11"/>
       <c r="AG68" s="11"/>
-      <c r="AH68" s="11"/>
-    </row>
-    <row r="69" spans="1:34">
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3901,11 +3827,10 @@
       <c r="AC69" s="11"/>
       <c r="AD69" s="7"/>
       <c r="AE69" s="7"/>
-      <c r="AF69" s="7"/>
+      <c r="AF69" s="11"/>
       <c r="AG69" s="11"/>
-      <c r="AH69" s="11"/>
-    </row>
-    <row r="70" spans="1:34">
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3937,11 +3862,10 @@
       <c r="AC70" s="11"/>
       <c r="AD70" s="7"/>
       <c r="AE70" s="7"/>
-      <c r="AF70" s="7"/>
+      <c r="AF70" s="11"/>
       <c r="AG70" s="11"/>
-      <c r="AH70" s="11"/>
-    </row>
-    <row r="71" spans="1:34">
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3973,11 +3897,10 @@
       <c r="AC71" s="11"/>
       <c r="AD71" s="7"/>
       <c r="AE71" s="7"/>
-      <c r="AF71" s="7"/>
+      <c r="AF71" s="11"/>
       <c r="AG71" s="11"/>
-      <c r="AH71" s="11"/>
-    </row>
-    <row r="72" spans="1:34">
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -4009,11 +3932,10 @@
       <c r="AC72" s="11"/>
       <c r="AD72" s="7"/>
       <c r="AE72" s="7"/>
-      <c r="AF72" s="7"/>
+      <c r="AF72" s="11"/>
       <c r="AG72" s="11"/>
-      <c r="AH72" s="11"/>
-    </row>
-    <row r="73" spans="1:34">
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -4045,11 +3967,10 @@
       <c r="AC73" s="11"/>
       <c r="AD73" s="7"/>
       <c r="AE73" s="7"/>
-      <c r="AF73" s="7"/>
+      <c r="AF73" s="11"/>
       <c r="AG73" s="11"/>
-      <c r="AH73" s="11"/>
-    </row>
-    <row r="74" spans="1:34">
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4081,11 +4002,10 @@
       <c r="AC74" s="11"/>
       <c r="AD74" s="7"/>
       <c r="AE74" s="7"/>
-      <c r="AF74" s="7"/>
+      <c r="AF74" s="11"/>
       <c r="AG74" s="11"/>
-      <c r="AH74" s="11"/>
-    </row>
-    <row r="75" spans="1:34">
+    </row>
+    <row r="75" spans="1:33">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -4117,11 +4037,10 @@
       <c r="AC75" s="11"/>
       <c r="AD75" s="7"/>
       <c r="AE75" s="7"/>
-      <c r="AF75" s="7"/>
+      <c r="AF75" s="11"/>
       <c r="AG75" s="11"/>
-      <c r="AH75" s="11"/>
-    </row>
-    <row r="76" spans="1:34">
+    </row>
+    <row r="76" spans="1:33">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -4153,11 +4072,10 @@
       <c r="AC76" s="11"/>
       <c r="AD76" s="7"/>
       <c r="AE76" s="7"/>
-      <c r="AF76" s="7"/>
+      <c r="AF76" s="11"/>
       <c r="AG76" s="11"/>
-      <c r="AH76" s="11"/>
-    </row>
-    <row r="77" spans="1:34">
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -4189,11 +4107,10 @@
       <c r="AC77" s="11"/>
       <c r="AD77" s="7"/>
       <c r="AE77" s="7"/>
-      <c r="AF77" s="7"/>
+      <c r="AF77" s="11"/>
       <c r="AG77" s="11"/>
-      <c r="AH77" s="11"/>
-    </row>
-    <row r="78" spans="1:34">
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -4225,11 +4142,10 @@
       <c r="AC78" s="11"/>
       <c r="AD78" s="7"/>
       <c r="AE78" s="7"/>
-      <c r="AF78" s="7"/>
+      <c r="AF78" s="11"/>
       <c r="AG78" s="11"/>
-      <c r="AH78" s="11"/>
-    </row>
-    <row r="79" spans="1:34">
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -4261,11 +4177,10 @@
       <c r="AC79" s="11"/>
       <c r="AD79" s="7"/>
       <c r="AE79" s="7"/>
-      <c r="AF79" s="7"/>
+      <c r="AF79" s="11"/>
       <c r="AG79" s="11"/>
-      <c r="AH79" s="11"/>
-    </row>
-    <row r="80" spans="1:34">
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -4297,11 +4212,10 @@
       <c r="AC80" s="11"/>
       <c r="AD80" s="7"/>
       <c r="AE80" s="7"/>
-      <c r="AF80" s="7"/>
+      <c r="AF80" s="11"/>
       <c r="AG80" s="11"/>
-      <c r="AH80" s="11"/>
-    </row>
-    <row r="81" spans="1:34">
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -4333,11 +4247,10 @@
       <c r="AC81" s="11"/>
       <c r="AD81" s="7"/>
       <c r="AE81" s="7"/>
-      <c r="AF81" s="7"/>
+      <c r="AF81" s="11"/>
       <c r="AG81" s="11"/>
-      <c r="AH81" s="11"/>
-    </row>
-    <row r="82" spans="1:34">
+    </row>
+    <row r="82" spans="1:33">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -4369,11 +4282,10 @@
       <c r="AC82" s="11"/>
       <c r="AD82" s="7"/>
       <c r="AE82" s="7"/>
-      <c r="AF82" s="7"/>
+      <c r="AF82" s="11"/>
       <c r="AG82" s="11"/>
-      <c r="AH82" s="11"/>
-    </row>
-    <row r="83" spans="1:34">
+    </row>
+    <row r="83" spans="1:33">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -4405,11 +4317,10 @@
       <c r="AC83" s="11"/>
       <c r="AD83" s="7"/>
       <c r="AE83" s="7"/>
-      <c r="AF83" s="7"/>
+      <c r="AF83" s="11"/>
       <c r="AG83" s="11"/>
-      <c r="AH83" s="11"/>
-    </row>
-    <row r="84" spans="1:34">
+    </row>
+    <row r="84" spans="1:33">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -4441,11 +4352,10 @@
       <c r="AC84" s="11"/>
       <c r="AD84" s="7"/>
       <c r="AE84" s="7"/>
-      <c r="AF84" s="7"/>
+      <c r="AF84" s="11"/>
       <c r="AG84" s="11"/>
-      <c r="AH84" s="11"/>
-    </row>
-    <row r="85" spans="1:34">
+    </row>
+    <row r="85" spans="1:33">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -4477,11 +4387,10 @@
       <c r="AC85" s="11"/>
       <c r="AD85" s="7"/>
       <c r="AE85" s="7"/>
-      <c r="AF85" s="7"/>
+      <c r="AF85" s="11"/>
       <c r="AG85" s="11"/>
-      <c r="AH85" s="11"/>
-    </row>
-    <row r="86" spans="1:34">
+    </row>
+    <row r="86" spans="1:33">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -4513,11 +4422,10 @@
       <c r="AC86" s="11"/>
       <c r="AD86" s="7"/>
       <c r="AE86" s="7"/>
-      <c r="AF86" s="7"/>
+      <c r="AF86" s="11"/>
       <c r="AG86" s="11"/>
-      <c r="AH86" s="11"/>
-    </row>
-    <row r="87" spans="1:34">
+    </row>
+    <row r="87" spans="1:33">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -4549,11 +4457,10 @@
       <c r="AC87" s="11"/>
       <c r="AD87" s="7"/>
       <c r="AE87" s="7"/>
-      <c r="AF87" s="7"/>
+      <c r="AF87" s="11"/>
       <c r="AG87" s="11"/>
-      <c r="AH87" s="11"/>
-    </row>
-    <row r="88" spans="1:34">
+    </row>
+    <row r="88" spans="1:33">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -4585,11 +4492,10 @@
       <c r="AC88" s="11"/>
       <c r="AD88" s="7"/>
       <c r="AE88" s="7"/>
-      <c r="AF88" s="7"/>
+      <c r="AF88" s="11"/>
       <c r="AG88" s="11"/>
-      <c r="AH88" s="11"/>
-    </row>
-    <row r="89" spans="1:34">
+    </row>
+    <row r="89" spans="1:33">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -4621,11 +4527,10 @@
       <c r="AC89" s="11"/>
       <c r="AD89" s="7"/>
       <c r="AE89" s="7"/>
-      <c r="AF89" s="7"/>
+      <c r="AF89" s="11"/>
       <c r="AG89" s="11"/>
-      <c r="AH89" s="11"/>
-    </row>
-    <row r="90" spans="1:34">
+    </row>
+    <row r="90" spans="1:33">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -4657,11 +4562,10 @@
       <c r="AC90" s="11"/>
       <c r="AD90" s="7"/>
       <c r="AE90" s="7"/>
-      <c r="AF90" s="7"/>
+      <c r="AF90" s="11"/>
       <c r="AG90" s="11"/>
-      <c r="AH90" s="11"/>
-    </row>
-    <row r="91" spans="1:34">
+    </row>
+    <row r="91" spans="1:33">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -4693,11 +4597,10 @@
       <c r="AC91" s="11"/>
       <c r="AD91" s="7"/>
       <c r="AE91" s="7"/>
-      <c r="AF91" s="7"/>
+      <c r="AF91" s="11"/>
       <c r="AG91" s="11"/>
-      <c r="AH91" s="11"/>
-    </row>
-    <row r="92" spans="1:34">
+    </row>
+    <row r="92" spans="1:33">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -4729,11 +4632,10 @@
       <c r="AC92" s="11"/>
       <c r="AD92" s="7"/>
       <c r="AE92" s="7"/>
-      <c r="AF92" s="7"/>
+      <c r="AF92" s="11"/>
       <c r="AG92" s="11"/>
-      <c r="AH92" s="11"/>
-    </row>
-    <row r="93" spans="1:34">
+    </row>
+    <row r="93" spans="1:33">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -4765,11 +4667,10 @@
       <c r="AC93" s="11"/>
       <c r="AD93" s="7"/>
       <c r="AE93" s="7"/>
-      <c r="AF93" s="7"/>
+      <c r="AF93" s="11"/>
       <c r="AG93" s="11"/>
-      <c r="AH93" s="11"/>
-    </row>
-    <row r="94" spans="1:34">
+    </row>
+    <row r="94" spans="1:33">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -4801,11 +4702,10 @@
       <c r="AC94" s="11"/>
       <c r="AD94" s="7"/>
       <c r="AE94" s="7"/>
-      <c r="AF94" s="7"/>
+      <c r="AF94" s="11"/>
       <c r="AG94" s="11"/>
-      <c r="AH94" s="11"/>
-    </row>
-    <row r="95" spans="1:34">
+    </row>
+    <row r="95" spans="1:33">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -4837,11 +4737,10 @@
       <c r="AC95" s="11"/>
       <c r="AD95" s="7"/>
       <c r="AE95" s="7"/>
-      <c r="AF95" s="7"/>
+      <c r="AF95" s="11"/>
       <c r="AG95" s="11"/>
-      <c r="AH95" s="11"/>
-    </row>
-    <row r="96" spans="1:34">
+    </row>
+    <row r="96" spans="1:33">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -4873,11 +4772,10 @@
       <c r="AC96" s="11"/>
       <c r="AD96" s="7"/>
       <c r="AE96" s="7"/>
-      <c r="AF96" s="7"/>
+      <c r="AF96" s="11"/>
       <c r="AG96" s="11"/>
-      <c r="AH96" s="11"/>
-    </row>
-    <row r="97" spans="1:34">
+    </row>
+    <row r="97" spans="1:33">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -4909,11 +4807,10 @@
       <c r="AC97" s="11"/>
       <c r="AD97" s="7"/>
       <c r="AE97" s="7"/>
-      <c r="AF97" s="7"/>
+      <c r="AF97" s="11"/>
       <c r="AG97" s="11"/>
-      <c r="AH97" s="11"/>
-    </row>
-    <row r="98" spans="1:34">
+    </row>
+    <row r="98" spans="1:33">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -4945,11 +4842,10 @@
       <c r="AC98" s="11"/>
       <c r="AD98" s="7"/>
       <c r="AE98" s="7"/>
-      <c r="AF98" s="7"/>
+      <c r="AF98" s="11"/>
       <c r="AG98" s="11"/>
-      <c r="AH98" s="11"/>
-    </row>
-    <row r="99" spans="1:34">
+    </row>
+    <row r="99" spans="1:33">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -4981,11 +4877,10 @@
       <c r="AC99" s="11"/>
       <c r="AD99" s="7"/>
       <c r="AE99" s="7"/>
-      <c r="AF99" s="7"/>
+      <c r="AF99" s="11"/>
       <c r="AG99" s="11"/>
-      <c r="AH99" s="11"/>
-    </row>
-    <row r="100" spans="1:34">
+    </row>
+    <row r="100" spans="1:33">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -5017,11 +4912,10 @@
       <c r="AC100" s="11"/>
       <c r="AD100" s="7"/>
       <c r="AE100" s="7"/>
-      <c r="AF100" s="7"/>
+      <c r="AF100" s="11"/>
       <c r="AG100" s="11"/>
-      <c r="AH100" s="11"/>
-    </row>
-    <row r="101" spans="1:34">
+    </row>
+    <row r="101" spans="1:33">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -5053,11 +4947,10 @@
       <c r="AC101" s="11"/>
       <c r="AD101" s="7"/>
       <c r="AE101" s="7"/>
-      <c r="AF101" s="7"/>
+      <c r="AF101" s="11"/>
       <c r="AG101" s="11"/>
-      <c r="AH101" s="11"/>
-    </row>
-    <row r="102" spans="1:34">
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -5089,11 +4982,10 @@
       <c r="AC102" s="11"/>
       <c r="AD102" s="7"/>
       <c r="AE102" s="7"/>
-      <c r="AF102" s="7"/>
+      <c r="AF102" s="11"/>
       <c r="AG102" s="11"/>
-      <c r="AH102" s="11"/>
-    </row>
-    <row r="103" spans="1:34">
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -5125,11 +5017,10 @@
       <c r="AC103" s="11"/>
       <c r="AD103" s="7"/>
       <c r="AE103" s="7"/>
-      <c r="AF103" s="7"/>
+      <c r="AF103" s="11"/>
       <c r="AG103" s="11"/>
-      <c r="AH103" s="11"/>
-    </row>
-    <row r="104" spans="1:34">
+    </row>
+    <row r="104" spans="1:33">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -5161,11 +5052,10 @@
       <c r="AC104" s="11"/>
       <c r="AD104" s="7"/>
       <c r="AE104" s="7"/>
-      <c r="AF104" s="7"/>
+      <c r="AF104" s="11"/>
       <c r="AG104" s="11"/>
-      <c r="AH104" s="11"/>
-    </row>
-    <row r="105" spans="1:34">
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -5197,11 +5087,10 @@
       <c r="AC105" s="11"/>
       <c r="AD105" s="7"/>
       <c r="AE105" s="7"/>
-      <c r="AF105" s="7"/>
+      <c r="AF105" s="11"/>
       <c r="AG105" s="11"/>
-      <c r="AH105" s="11"/>
-    </row>
-    <row r="106" spans="1:34">
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -5233,11 +5122,10 @@
       <c r="AC106" s="11"/>
       <c r="AD106" s="7"/>
       <c r="AE106" s="7"/>
-      <c r="AF106" s="7"/>
+      <c r="AF106" s="11"/>
       <c r="AG106" s="11"/>
-      <c r="AH106" s="11"/>
-    </row>
-    <row r="107" spans="1:34">
+    </row>
+    <row r="107" spans="1:33">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -5269,11 +5157,10 @@
       <c r="AC107" s="11"/>
       <c r="AD107" s="7"/>
       <c r="AE107" s="7"/>
-      <c r="AF107" s="7"/>
+      <c r="AF107" s="11"/>
       <c r="AG107" s="11"/>
-      <c r="AH107" s="11"/>
-    </row>
-    <row r="108" spans="1:34">
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -5305,11 +5192,10 @@
       <c r="AC108" s="11"/>
       <c r="AD108" s="7"/>
       <c r="AE108" s="7"/>
-      <c r="AF108" s="7"/>
+      <c r="AF108" s="11"/>
       <c r="AG108" s="11"/>
-      <c r="AH108" s="11"/>
-    </row>
-    <row r="109" spans="1:34">
+    </row>
+    <row r="109" spans="1:33">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -5341,11 +5227,10 @@
       <c r="AC109" s="11"/>
       <c r="AD109" s="7"/>
       <c r="AE109" s="7"/>
-      <c r="AF109" s="7"/>
+      <c r="AF109" s="11"/>
       <c r="AG109" s="11"/>
-      <c r="AH109" s="11"/>
-    </row>
-    <row r="110" spans="1:34">
+    </row>
+    <row r="110" spans="1:33">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -5377,11 +5262,10 @@
       <c r="AC110" s="11"/>
       <c r="AD110" s="7"/>
       <c r="AE110" s="7"/>
-      <c r="AF110" s="7"/>
+      <c r="AF110" s="11"/>
       <c r="AG110" s="11"/>
-      <c r="AH110" s="11"/>
-    </row>
-    <row r="111" spans="1:34">
+    </row>
+    <row r="111" spans="1:33">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -5413,11 +5297,10 @@
       <c r="AC111" s="11"/>
       <c r="AD111" s="7"/>
       <c r="AE111" s="7"/>
-      <c r="AF111" s="7"/>
+      <c r="AF111" s="11"/>
       <c r="AG111" s="11"/>
-      <c r="AH111" s="11"/>
-    </row>
-    <row r="112" spans="1:34">
+    </row>
+    <row r="112" spans="1:33">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -5449,11 +5332,10 @@
       <c r="AC112" s="11"/>
       <c r="AD112" s="7"/>
       <c r="AE112" s="7"/>
-      <c r="AF112" s="7"/>
+      <c r="AF112" s="11"/>
       <c r="AG112" s="11"/>
-      <c r="AH112" s="11"/>
-    </row>
-    <row r="113" spans="1:34">
+    </row>
+    <row r="113" spans="1:33">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -5485,11 +5367,10 @@
       <c r="AC113" s="11"/>
       <c r="AD113" s="7"/>
       <c r="AE113" s="7"/>
-      <c r="AF113" s="7"/>
+      <c r="AF113" s="11"/>
       <c r="AG113" s="11"/>
-      <c r="AH113" s="11"/>
-    </row>
-    <row r="114" spans="1:34">
+    </row>
+    <row r="114" spans="1:33">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -5521,11 +5402,10 @@
       <c r="AC114" s="11"/>
       <c r="AD114" s="7"/>
       <c r="AE114" s="7"/>
-      <c r="AF114" s="7"/>
+      <c r="AF114" s="11"/>
       <c r="AG114" s="11"/>
-      <c r="AH114" s="11"/>
-    </row>
-    <row r="115" spans="1:34">
+    </row>
+    <row r="115" spans="1:33">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -5557,11 +5437,10 @@
       <c r="AC115" s="11"/>
       <c r="AD115" s="7"/>
       <c r="AE115" s="7"/>
-      <c r="AF115" s="7"/>
+      <c r="AF115" s="11"/>
       <c r="AG115" s="11"/>
-      <c r="AH115" s="11"/>
-    </row>
-    <row r="116" spans="1:34">
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -5593,11 +5472,10 @@
       <c r="AC116" s="11"/>
       <c r="AD116" s="7"/>
       <c r="AE116" s="7"/>
-      <c r="AF116" s="7"/>
+      <c r="AF116" s="11"/>
       <c r="AG116" s="11"/>
-      <c r="AH116" s="11"/>
-    </row>
-    <row r="117" spans="1:34">
+    </row>
+    <row r="117" spans="1:33">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -5629,11 +5507,10 @@
       <c r="AC117" s="11"/>
       <c r="AD117" s="7"/>
       <c r="AE117" s="7"/>
-      <c r="AF117" s="7"/>
+      <c r="AF117" s="11"/>
       <c r="AG117" s="11"/>
-      <c r="AH117" s="11"/>
-    </row>
-    <row r="118" spans="1:34">
+    </row>
+    <row r="118" spans="1:33">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -5665,11 +5542,10 @@
       <c r="AC118" s="11"/>
       <c r="AD118" s="7"/>
       <c r="AE118" s="7"/>
-      <c r="AF118" s="7"/>
+      <c r="AF118" s="11"/>
       <c r="AG118" s="11"/>
-      <c r="AH118" s="11"/>
-    </row>
-    <row r="119" spans="1:34">
+    </row>
+    <row r="119" spans="1:33">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -5701,11 +5577,10 @@
       <c r="AC119" s="11"/>
       <c r="AD119" s="7"/>
       <c r="AE119" s="7"/>
-      <c r="AF119" s="7"/>
+      <c r="AF119" s="11"/>
       <c r="AG119" s="11"/>
-      <c r="AH119" s="11"/>
-    </row>
-    <row r="120" spans="1:34">
+    </row>
+    <row r="120" spans="1:33">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -5737,11 +5612,10 @@
       <c r="AC120" s="11"/>
       <c r="AD120" s="7"/>
       <c r="AE120" s="7"/>
-      <c r="AF120" s="7"/>
+      <c r="AF120" s="11"/>
       <c r="AG120" s="11"/>
-      <c r="AH120" s="11"/>
-    </row>
-    <row r="121" spans="1:34">
+    </row>
+    <row r="121" spans="1:33">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -5773,11 +5647,10 @@
       <c r="AC121" s="11"/>
       <c r="AD121" s="7"/>
       <c r="AE121" s="7"/>
-      <c r="AF121" s="7"/>
+      <c r="AF121" s="11"/>
       <c r="AG121" s="11"/>
-      <c r="AH121" s="11"/>
-    </row>
-    <row r="122" spans="1:34">
+    </row>
+    <row r="122" spans="1:33">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -5809,11 +5682,10 @@
       <c r="AC122" s="11"/>
       <c r="AD122" s="7"/>
       <c r="AE122" s="7"/>
-      <c r="AF122" s="7"/>
+      <c r="AF122" s="11"/>
       <c r="AG122" s="11"/>
-      <c r="AH122" s="11"/>
-    </row>
-    <row r="123" spans="1:34">
+    </row>
+    <row r="123" spans="1:33">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -5845,11 +5717,10 @@
       <c r="AC123" s="11"/>
       <c r="AD123" s="7"/>
       <c r="AE123" s="7"/>
-      <c r="AF123" s="7"/>
+      <c r="AF123" s="11"/>
       <c r="AG123" s="11"/>
-      <c r="AH123" s="11"/>
-    </row>
-    <row r="124" spans="1:34">
+    </row>
+    <row r="124" spans="1:33">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -5881,11 +5752,10 @@
       <c r="AC124" s="11"/>
       <c r="AD124" s="7"/>
       <c r="AE124" s="7"/>
-      <c r="AF124" s="7"/>
+      <c r="AF124" s="11"/>
       <c r="AG124" s="11"/>
-      <c r="AH124" s="11"/>
-    </row>
-    <row r="125" spans="1:34">
+    </row>
+    <row r="125" spans="1:33">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -5917,11 +5787,10 @@
       <c r="AC125" s="11"/>
       <c r="AD125" s="7"/>
       <c r="AE125" s="7"/>
-      <c r="AF125" s="7"/>
+      <c r="AF125" s="11"/>
       <c r="AG125" s="11"/>
-      <c r="AH125" s="11"/>
-    </row>
-    <row r="126" spans="1:34">
+    </row>
+    <row r="126" spans="1:33">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -5953,11 +5822,10 @@
       <c r="AC126" s="11"/>
       <c r="AD126" s="7"/>
       <c r="AE126" s="7"/>
-      <c r="AF126" s="7"/>
+      <c r="AF126" s="11"/>
       <c r="AG126" s="11"/>
-      <c r="AH126" s="11"/>
-    </row>
-    <row r="127" spans="1:34">
+    </row>
+    <row r="127" spans="1:33">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -5989,11 +5857,10 @@
       <c r="AC127" s="11"/>
       <c r="AD127" s="7"/>
       <c r="AE127" s="7"/>
-      <c r="AF127" s="7"/>
+      <c r="AF127" s="11"/>
       <c r="AG127" s="11"/>
-      <c r="AH127" s="11"/>
-    </row>
-    <row r="128" spans="1:34">
+    </row>
+    <row r="128" spans="1:33">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -6025,11 +5892,10 @@
       <c r="AC128" s="11"/>
       <c r="AD128" s="7"/>
       <c r="AE128" s="7"/>
-      <c r="AF128" s="7"/>
+      <c r="AF128" s="11"/>
       <c r="AG128" s="11"/>
-      <c r="AH128" s="11"/>
-    </row>
-    <row r="129" spans="1:34">
+    </row>
+    <row r="129" spans="1:33">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -6061,11 +5927,10 @@
       <c r="AC129" s="11"/>
       <c r="AD129" s="7"/>
       <c r="AE129" s="7"/>
-      <c r="AF129" s="7"/>
+      <c r="AF129" s="11"/>
       <c r="AG129" s="11"/>
-      <c r="AH129" s="11"/>
-    </row>
-    <row r="130" spans="1:34">
+    </row>
+    <row r="130" spans="1:33">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -6097,11 +5962,10 @@
       <c r="AC130" s="11"/>
       <c r="AD130" s="7"/>
       <c r="AE130" s="7"/>
-      <c r="AF130" s="7"/>
+      <c r="AF130" s="11"/>
       <c r="AG130" s="11"/>
-      <c r="AH130" s="11"/>
-    </row>
-    <row r="131" spans="1:34">
+    </row>
+    <row r="131" spans="1:33">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -6133,11 +5997,10 @@
       <c r="AC131" s="11"/>
       <c r="AD131" s="7"/>
       <c r="AE131" s="7"/>
-      <c r="AF131" s="7"/>
+      <c r="AF131" s="11"/>
       <c r="AG131" s="11"/>
-      <c r="AH131" s="11"/>
-    </row>
-    <row r="132" spans="1:34">
+    </row>
+    <row r="132" spans="1:33">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -6169,11 +6032,10 @@
       <c r="AC132" s="11"/>
       <c r="AD132" s="7"/>
       <c r="AE132" s="7"/>
-      <c r="AF132" s="7"/>
+      <c r="AF132" s="11"/>
       <c r="AG132" s="11"/>
-      <c r="AH132" s="11"/>
-    </row>
-    <row r="133" spans="1:34">
+    </row>
+    <row r="133" spans="1:33">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -6205,11 +6067,10 @@
       <c r="AC133" s="11"/>
       <c r="AD133" s="7"/>
       <c r="AE133" s="7"/>
-      <c r="AF133" s="7"/>
+      <c r="AF133" s="11"/>
       <c r="AG133" s="11"/>
-      <c r="AH133" s="11"/>
-    </row>
-    <row r="134" spans="1:34">
+    </row>
+    <row r="134" spans="1:33">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -6241,11 +6102,10 @@
       <c r="AC134" s="11"/>
       <c r="AD134" s="7"/>
       <c r="AE134" s="7"/>
-      <c r="AF134" s="7"/>
+      <c r="AF134" s="11"/>
       <c r="AG134" s="11"/>
-      <c r="AH134" s="11"/>
-    </row>
-    <row r="135" spans="1:34">
+    </row>
+    <row r="135" spans="1:33">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -6277,11 +6137,10 @@
       <c r="AC135" s="11"/>
       <c r="AD135" s="7"/>
       <c r="AE135" s="7"/>
-      <c r="AF135" s="7"/>
+      <c r="AF135" s="11"/>
       <c r="AG135" s="11"/>
-      <c r="AH135" s="11"/>
-    </row>
-    <row r="136" spans="1:34">
+    </row>
+    <row r="136" spans="1:33">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -6313,11 +6172,10 @@
       <c r="AC136" s="11"/>
       <c r="AD136" s="7"/>
       <c r="AE136" s="7"/>
-      <c r="AF136" s="7"/>
+      <c r="AF136" s="11"/>
       <c r="AG136" s="11"/>
-      <c r="AH136" s="11"/>
-    </row>
-    <row r="137" spans="1:34">
+    </row>
+    <row r="137" spans="1:33">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -6349,11 +6207,10 @@
       <c r="AC137" s="11"/>
       <c r="AD137" s="7"/>
       <c r="AE137" s="7"/>
-      <c r="AF137" s="7"/>
+      <c r="AF137" s="11"/>
       <c r="AG137" s="11"/>
-      <c r="AH137" s="11"/>
-    </row>
-    <row r="138" spans="1:34">
+    </row>
+    <row r="138" spans="1:33">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -6385,11 +6242,10 @@
       <c r="AC138" s="11"/>
       <c r="AD138" s="7"/>
       <c r="AE138" s="7"/>
-      <c r="AF138" s="7"/>
+      <c r="AF138" s="11"/>
       <c r="AG138" s="11"/>
-      <c r="AH138" s="11"/>
-    </row>
-    <row r="139" spans="1:34">
+    </row>
+    <row r="139" spans="1:33">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -6421,11 +6277,10 @@
       <c r="AC139" s="11"/>
       <c r="AD139" s="7"/>
       <c r="AE139" s="7"/>
-      <c r="AF139" s="7"/>
+      <c r="AF139" s="11"/>
       <c r="AG139" s="11"/>
-      <c r="AH139" s="11"/>
-    </row>
-    <row r="140" spans="1:34">
+    </row>
+    <row r="140" spans="1:33">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -6457,11 +6312,10 @@
       <c r="AC140" s="11"/>
       <c r="AD140" s="7"/>
       <c r="AE140" s="7"/>
-      <c r="AF140" s="7"/>
+      <c r="AF140" s="11"/>
       <c r="AG140" s="11"/>
-      <c r="AH140" s="11"/>
-    </row>
-    <row r="141" spans="1:34">
+    </row>
+    <row r="141" spans="1:33">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -6493,11 +6347,10 @@
       <c r="AC141" s="11"/>
       <c r="AD141" s="7"/>
       <c r="AE141" s="7"/>
-      <c r="AF141" s="7"/>
+      <c r="AF141" s="11"/>
       <c r="AG141" s="11"/>
-      <c r="AH141" s="11"/>
-    </row>
-    <row r="142" spans="1:34">
+    </row>
+    <row r="142" spans="1:33">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -6529,11 +6382,10 @@
       <c r="AC142" s="11"/>
       <c r="AD142" s="7"/>
       <c r="AE142" s="7"/>
-      <c r="AF142" s="7"/>
+      <c r="AF142" s="11"/>
       <c r="AG142" s="11"/>
-      <c r="AH142" s="11"/>
-    </row>
-    <row r="143" spans="1:34">
+    </row>
+    <row r="143" spans="1:33">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -6565,11 +6417,10 @@
       <c r="AC143" s="11"/>
       <c r="AD143" s="7"/>
       <c r="AE143" s="7"/>
-      <c r="AF143" s="7"/>
+      <c r="AF143" s="11"/>
       <c r="AG143" s="11"/>
-      <c r="AH143" s="11"/>
-    </row>
-    <row r="144" spans="1:34">
+    </row>
+    <row r="144" spans="1:33">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -6601,11 +6452,10 @@
       <c r="AC144" s="11"/>
       <c r="AD144" s="7"/>
       <c r="AE144" s="7"/>
-      <c r="AF144" s="7"/>
+      <c r="AF144" s="11"/>
       <c r="AG144" s="11"/>
-      <c r="AH144" s="11"/>
-    </row>
-    <row r="145" spans="1:34">
+    </row>
+    <row r="145" spans="1:33">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -6637,11 +6487,10 @@
       <c r="AC145" s="11"/>
       <c r="AD145" s="7"/>
       <c r="AE145" s="7"/>
-      <c r="AF145" s="7"/>
+      <c r="AF145" s="11"/>
       <c r="AG145" s="11"/>
-      <c r="AH145" s="11"/>
-    </row>
-    <row r="146" spans="1:34">
+    </row>
+    <row r="146" spans="1:33">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -6673,11 +6522,10 @@
       <c r="AC146" s="11"/>
       <c r="AD146" s="7"/>
       <c r="AE146" s="7"/>
-      <c r="AF146" s="7"/>
+      <c r="AF146" s="11"/>
       <c r="AG146" s="11"/>
-      <c r="AH146" s="11"/>
-    </row>
-    <row r="147" spans="1:34">
+    </row>
+    <row r="147" spans="1:33">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -6709,11 +6557,10 @@
       <c r="AC147" s="11"/>
       <c r="AD147" s="7"/>
       <c r="AE147" s="7"/>
-      <c r="AF147" s="7"/>
+      <c r="AF147" s="11"/>
       <c r="AG147" s="11"/>
-      <c r="AH147" s="11"/>
-    </row>
-    <row r="148" spans="1:34">
+    </row>
+    <row r="148" spans="1:33">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -6745,11 +6592,10 @@
       <c r="AC148" s="11"/>
       <c r="AD148" s="7"/>
       <c r="AE148" s="7"/>
-      <c r="AF148" s="7"/>
+      <c r="AF148" s="11"/>
       <c r="AG148" s="11"/>
-      <c r="AH148" s="11"/>
-    </row>
-    <row r="149" spans="1:34">
+    </row>
+    <row r="149" spans="1:33">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -6781,11 +6627,10 @@
       <c r="AC149" s="11"/>
       <c r="AD149" s="7"/>
       <c r="AE149" s="7"/>
-      <c r="AF149" s="7"/>
+      <c r="AF149" s="11"/>
       <c r="AG149" s="11"/>
-      <c r="AH149" s="11"/>
-    </row>
-    <row r="150" spans="1:34">
+    </row>
+    <row r="150" spans="1:33">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -6817,11 +6662,10 @@
       <c r="AC150" s="11"/>
       <c r="AD150" s="7"/>
       <c r="AE150" s="7"/>
-      <c r="AF150" s="7"/>
+      <c r="AF150" s="11"/>
       <c r="AG150" s="11"/>
-      <c r="AH150" s="11"/>
-    </row>
-    <row r="151" spans="1:34">
+    </row>
+    <row r="151" spans="1:33">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -6853,11 +6697,10 @@
       <c r="AC151" s="11"/>
       <c r="AD151" s="7"/>
       <c r="AE151" s="7"/>
-      <c r="AF151" s="7"/>
+      <c r="AF151" s="11"/>
       <c r="AG151" s="11"/>
-      <c r="AH151" s="11"/>
-    </row>
-    <row r="152" spans="1:34">
+    </row>
+    <row r="152" spans="1:33">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -6889,11 +6732,10 @@
       <c r="AC152" s="11"/>
       <c r="AD152" s="7"/>
       <c r="AE152" s="7"/>
-      <c r="AF152" s="7"/>
+      <c r="AF152" s="11"/>
       <c r="AG152" s="11"/>
-      <c r="AH152" s="11"/>
-    </row>
-    <row r="153" spans="1:34">
+    </row>
+    <row r="153" spans="1:33">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -6925,11 +6767,10 @@
       <c r="AC153" s="11"/>
       <c r="AD153" s="7"/>
       <c r="AE153" s="7"/>
-      <c r="AF153" s="7"/>
+      <c r="AF153" s="11"/>
       <c r="AG153" s="11"/>
-      <c r="AH153" s="11"/>
-    </row>
-    <row r="154" spans="1:34">
+    </row>
+    <row r="154" spans="1:33">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -6961,11 +6802,10 @@
       <c r="AC154" s="11"/>
       <c r="AD154" s="7"/>
       <c r="AE154" s="7"/>
-      <c r="AF154" s="7"/>
+      <c r="AF154" s="11"/>
       <c r="AG154" s="11"/>
-      <c r="AH154" s="11"/>
-    </row>
-    <row r="155" spans="1:34">
+    </row>
+    <row r="155" spans="1:33">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -6997,11 +6837,10 @@
       <c r="AC155" s="11"/>
       <c r="AD155" s="7"/>
       <c r="AE155" s="7"/>
-      <c r="AF155" s="7"/>
+      <c r="AF155" s="11"/>
       <c r="AG155" s="11"/>
-      <c r="AH155" s="11"/>
-    </row>
-    <row r="156" spans="1:34">
+    </row>
+    <row r="156" spans="1:33">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -7033,11 +6872,10 @@
       <c r="AC156" s="11"/>
       <c r="AD156" s="7"/>
       <c r="AE156" s="7"/>
-      <c r="AF156" s="7"/>
+      <c r="AF156" s="11"/>
       <c r="AG156" s="11"/>
-      <c r="AH156" s="11"/>
-    </row>
-    <row r="157" spans="1:34">
+    </row>
+    <row r="157" spans="1:33">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -7069,11 +6907,10 @@
       <c r="AC157" s="11"/>
       <c r="AD157" s="7"/>
       <c r="AE157" s="7"/>
-      <c r="AF157" s="7"/>
+      <c r="AF157" s="11"/>
       <c r="AG157" s="11"/>
-      <c r="AH157" s="11"/>
-    </row>
-    <row r="158" spans="1:34">
+    </row>
+    <row r="158" spans="1:33">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -7105,11 +6942,10 @@
       <c r="AC158" s="11"/>
       <c r="AD158" s="7"/>
       <c r="AE158" s="7"/>
-      <c r="AF158" s="7"/>
+      <c r="AF158" s="11"/>
       <c r="AG158" s="11"/>
-      <c r="AH158" s="11"/>
-    </row>
-    <row r="159" spans="1:34">
+    </row>
+    <row r="159" spans="1:33">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -7141,11 +6977,10 @@
       <c r="AC159" s="11"/>
       <c r="AD159" s="7"/>
       <c r="AE159" s="7"/>
-      <c r="AF159" s="7"/>
+      <c r="AF159" s="11"/>
       <c r="AG159" s="11"/>
-      <c r="AH159" s="11"/>
-    </row>
-    <row r="160" spans="1:34">
+    </row>
+    <row r="160" spans="1:33">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -7177,11 +7012,10 @@
       <c r="AC160" s="11"/>
       <c r="AD160" s="7"/>
       <c r="AE160" s="7"/>
-      <c r="AF160" s="7"/>
+      <c r="AF160" s="11"/>
       <c r="AG160" s="11"/>
-      <c r="AH160" s="11"/>
-    </row>
-    <row r="161" spans="1:34">
+    </row>
+    <row r="161" spans="1:33">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -7213,11 +7047,10 @@
       <c r="AC161" s="11"/>
       <c r="AD161" s="7"/>
       <c r="AE161" s="7"/>
-      <c r="AF161" s="7"/>
+      <c r="AF161" s="11"/>
       <c r="AG161" s="11"/>
-      <c r="AH161" s="11"/>
-    </row>
-    <row r="162" spans="1:34">
+    </row>
+    <row r="162" spans="1:33">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -7249,11 +7082,10 @@
       <c r="AC162" s="11"/>
       <c r="AD162" s="7"/>
       <c r="AE162" s="7"/>
-      <c r="AF162" s="7"/>
+      <c r="AF162" s="11"/>
       <c r="AG162" s="11"/>
-      <c r="AH162" s="11"/>
-    </row>
-    <row r="163" spans="1:34">
+    </row>
+    <row r="163" spans="1:33">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -7285,11 +7117,10 @@
       <c r="AC163" s="11"/>
       <c r="AD163" s="7"/>
       <c r="AE163" s="7"/>
-      <c r="AF163" s="7"/>
+      <c r="AF163" s="11"/>
       <c r="AG163" s="11"/>
-      <c r="AH163" s="11"/>
-    </row>
-    <row r="164" spans="1:34">
+    </row>
+    <row r="164" spans="1:33">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -7321,11 +7152,10 @@
       <c r="AC164" s="11"/>
       <c r="AD164" s="7"/>
       <c r="AE164" s="7"/>
-      <c r="AF164" s="7"/>
+      <c r="AF164" s="11"/>
       <c r="AG164" s="11"/>
-      <c r="AH164" s="11"/>
-    </row>
-    <row r="165" spans="1:34">
+    </row>
+    <row r="165" spans="1:33">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -7357,11 +7187,10 @@
       <c r="AC165" s="11"/>
       <c r="AD165" s="7"/>
       <c r="AE165" s="7"/>
-      <c r="AF165" s="7"/>
+      <c r="AF165" s="11"/>
       <c r="AG165" s="11"/>
-      <c r="AH165" s="11"/>
-    </row>
-    <row r="166" spans="1:34">
+    </row>
+    <row r="166" spans="1:33">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -7393,11 +7222,10 @@
       <c r="AC166" s="11"/>
       <c r="AD166" s="7"/>
       <c r="AE166" s="7"/>
-      <c r="AF166" s="7"/>
+      <c r="AF166" s="11"/>
       <c r="AG166" s="11"/>
-      <c r="AH166" s="11"/>
-    </row>
-    <row r="167" spans="1:34">
+    </row>
+    <row r="167" spans="1:33">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -7429,11 +7257,10 @@
       <c r="AC167" s="11"/>
       <c r="AD167" s="7"/>
       <c r="AE167" s="7"/>
-      <c r="AF167" s="7"/>
+      <c r="AF167" s="11"/>
       <c r="AG167" s="11"/>
-      <c r="AH167" s="11"/>
-    </row>
-    <row r="168" spans="1:34">
+    </row>
+    <row r="168" spans="1:33">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -7465,11 +7292,10 @@
       <c r="AC168" s="11"/>
       <c r="AD168" s="7"/>
       <c r="AE168" s="7"/>
-      <c r="AF168" s="7"/>
+      <c r="AF168" s="11"/>
       <c r="AG168" s="11"/>
-      <c r="AH168" s="11"/>
-    </row>
-    <row r="169" spans="1:34">
+    </row>
+    <row r="169" spans="1:33">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -7501,11 +7327,10 @@
       <c r="AC169" s="11"/>
       <c r="AD169" s="7"/>
       <c r="AE169" s="7"/>
-      <c r="AF169" s="7"/>
+      <c r="AF169" s="11"/>
       <c r="AG169" s="11"/>
-      <c r="AH169" s="11"/>
-    </row>
-    <row r="170" spans="1:34">
+    </row>
+    <row r="170" spans="1:33">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -7537,11 +7362,10 @@
       <c r="AC170" s="11"/>
       <c r="AD170" s="7"/>
       <c r="AE170" s="7"/>
-      <c r="AF170" s="7"/>
+      <c r="AF170" s="11"/>
       <c r="AG170" s="11"/>
-      <c r="AH170" s="11"/>
-    </row>
-    <row r="171" spans="1:34">
+    </row>
+    <row r="171" spans="1:33">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -7573,11 +7397,10 @@
       <c r="AC171" s="11"/>
       <c r="AD171" s="7"/>
       <c r="AE171" s="7"/>
-      <c r="AF171" s="7"/>
+      <c r="AF171" s="11"/>
       <c r="AG171" s="11"/>
-      <c r="AH171" s="11"/>
-    </row>
-    <row r="172" spans="1:34">
+    </row>
+    <row r="172" spans="1:33">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -7609,11 +7432,10 @@
       <c r="AC172" s="11"/>
       <c r="AD172" s="7"/>
       <c r="AE172" s="7"/>
-      <c r="AF172" s="7"/>
+      <c r="AF172" s="11"/>
       <c r="AG172" s="11"/>
-      <c r="AH172" s="11"/>
-    </row>
-    <row r="173" spans="1:34">
+    </row>
+    <row r="173" spans="1:33">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -7645,11 +7467,10 @@
       <c r="AC173" s="11"/>
       <c r="AD173" s="7"/>
       <c r="AE173" s="7"/>
-      <c r="AF173" s="7"/>
+      <c r="AF173" s="11"/>
       <c r="AG173" s="11"/>
-      <c r="AH173" s="11"/>
-    </row>
-    <row r="174" spans="1:34">
+    </row>
+    <row r="174" spans="1:33">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -7681,11 +7502,10 @@
       <c r="AC174" s="11"/>
       <c r="AD174" s="7"/>
       <c r="AE174" s="7"/>
-      <c r="AF174" s="7"/>
+      <c r="AF174" s="11"/>
       <c r="AG174" s="11"/>
-      <c r="AH174" s="11"/>
-    </row>
-    <row r="175" spans="1:34">
+    </row>
+    <row r="175" spans="1:33">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -7717,11 +7537,10 @@
       <c r="AC175" s="11"/>
       <c r="AD175" s="7"/>
       <c r="AE175" s="7"/>
-      <c r="AF175" s="7"/>
+      <c r="AF175" s="11"/>
       <c r="AG175" s="11"/>
-      <c r="AH175" s="11"/>
-    </row>
-    <row r="176" spans="1:34">
+    </row>
+    <row r="176" spans="1:33">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -7753,11 +7572,10 @@
       <c r="AC176" s="11"/>
       <c r="AD176" s="7"/>
       <c r="AE176" s="7"/>
-      <c r="AF176" s="7"/>
+      <c r="AF176" s="11"/>
       <c r="AG176" s="11"/>
-      <c r="AH176" s="11"/>
-    </row>
-    <row r="177" spans="1:34">
+    </row>
+    <row r="177" spans="1:33">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -7789,11 +7607,10 @@
       <c r="AC177" s="11"/>
       <c r="AD177" s="7"/>
       <c r="AE177" s="7"/>
-      <c r="AF177" s="7"/>
+      <c r="AF177" s="11"/>
       <c r="AG177" s="11"/>
-      <c r="AH177" s="11"/>
-    </row>
-    <row r="178" spans="1:34">
+    </row>
+    <row r="178" spans="1:33">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -7825,11 +7642,10 @@
       <c r="AC178" s="11"/>
       <c r="AD178" s="7"/>
       <c r="AE178" s="7"/>
-      <c r="AF178" s="7"/>
+      <c r="AF178" s="11"/>
       <c r="AG178" s="11"/>
-      <c r="AH178" s="11"/>
-    </row>
-    <row r="179" spans="1:34">
+    </row>
+    <row r="179" spans="1:33">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -7861,11 +7677,10 @@
       <c r="AC179" s="11"/>
       <c r="AD179" s="7"/>
       <c r="AE179" s="7"/>
-      <c r="AF179" s="7"/>
+      <c r="AF179" s="11"/>
       <c r="AG179" s="11"/>
-      <c r="AH179" s="11"/>
-    </row>
-    <row r="180" spans="1:34">
+    </row>
+    <row r="180" spans="1:33">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -7897,11 +7712,10 @@
       <c r="AC180" s="11"/>
       <c r="AD180" s="7"/>
       <c r="AE180" s="7"/>
-      <c r="AF180" s="7"/>
+      <c r="AF180" s="11"/>
       <c r="AG180" s="11"/>
-      <c r="AH180" s="11"/>
-    </row>
-    <row r="181" spans="1:34">
+    </row>
+    <row r="181" spans="1:33">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -7933,11 +7747,10 @@
       <c r="AC181" s="11"/>
       <c r="AD181" s="7"/>
       <c r="AE181" s="7"/>
-      <c r="AF181" s="7"/>
+      <c r="AF181" s="11"/>
       <c r="AG181" s="11"/>
-      <c r="AH181" s="11"/>
-    </row>
-    <row r="182" spans="1:34">
+    </row>
+    <row r="182" spans="1:33">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -7969,11 +7782,10 @@
       <c r="AC182" s="11"/>
       <c r="AD182" s="7"/>
       <c r="AE182" s="7"/>
-      <c r="AF182" s="7"/>
+      <c r="AF182" s="11"/>
       <c r="AG182" s="11"/>
-      <c r="AH182" s="11"/>
-    </row>
-    <row r="183" spans="1:34">
+    </row>
+    <row r="183" spans="1:33">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -8005,11 +7817,10 @@
       <c r="AC183" s="11"/>
       <c r="AD183" s="7"/>
       <c r="AE183" s="7"/>
-      <c r="AF183" s="7"/>
+      <c r="AF183" s="11"/>
       <c r="AG183" s="11"/>
-      <c r="AH183" s="11"/>
-    </row>
-    <row r="184" spans="1:34">
+    </row>
+    <row r="184" spans="1:33">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -8041,11 +7852,10 @@
       <c r="AC184" s="11"/>
       <c r="AD184" s="7"/>
       <c r="AE184" s="7"/>
-      <c r="AF184" s="7"/>
+      <c r="AF184" s="11"/>
       <c r="AG184" s="11"/>
-      <c r="AH184" s="11"/>
-    </row>
-    <row r="185" spans="1:34">
+    </row>
+    <row r="185" spans="1:33">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -8077,11 +7887,10 @@
       <c r="AC185" s="11"/>
       <c r="AD185" s="7"/>
       <c r="AE185" s="7"/>
-      <c r="AF185" s="7"/>
+      <c r="AF185" s="11"/>
       <c r="AG185" s="11"/>
-      <c r="AH185" s="11"/>
-    </row>
-    <row r="186" spans="1:34">
+    </row>
+    <row r="186" spans="1:33">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -8113,11 +7922,10 @@
       <c r="AC186" s="11"/>
       <c r="AD186" s="7"/>
       <c r="AE186" s="7"/>
-      <c r="AF186" s="7"/>
+      <c r="AF186" s="11"/>
       <c r="AG186" s="11"/>
-      <c r="AH186" s="11"/>
-    </row>
-    <row r="187" spans="1:34">
+    </row>
+    <row r="187" spans="1:33">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -8149,11 +7957,10 @@
       <c r="AC187" s="11"/>
       <c r="AD187" s="7"/>
       <c r="AE187" s="7"/>
-      <c r="AF187" s="7"/>
+      <c r="AF187" s="11"/>
       <c r="AG187" s="11"/>
-      <c r="AH187" s="11"/>
-    </row>
-    <row r="188" spans="1:34">
+    </row>
+    <row r="188" spans="1:33">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -8185,11 +7992,10 @@
       <c r="AC188" s="11"/>
       <c r="AD188" s="7"/>
       <c r="AE188" s="7"/>
-      <c r="AF188" s="7"/>
+      <c r="AF188" s="11"/>
       <c r="AG188" s="11"/>
-      <c r="AH188" s="11"/>
-    </row>
-    <row r="189" spans="1:34">
+    </row>
+    <row r="189" spans="1:33">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -8221,11 +8027,10 @@
       <c r="AC189" s="11"/>
       <c r="AD189" s="7"/>
       <c r="AE189" s="7"/>
-      <c r="AF189" s="7"/>
+      <c r="AF189" s="11"/>
       <c r="AG189" s="11"/>
-      <c r="AH189" s="11"/>
-    </row>
-    <row r="190" spans="1:34">
+    </row>
+    <row r="190" spans="1:33">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -8257,11 +8062,10 @@
       <c r="AC190" s="11"/>
       <c r="AD190" s="7"/>
       <c r="AE190" s="7"/>
-      <c r="AF190" s="7"/>
+      <c r="AF190" s="11"/>
       <c r="AG190" s="11"/>
-      <c r="AH190" s="11"/>
-    </row>
-    <row r="191" spans="1:34">
+    </row>
+    <row r="191" spans="1:33">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -8293,11 +8097,10 @@
       <c r="AC191" s="11"/>
       <c r="AD191" s="7"/>
       <c r="AE191" s="7"/>
-      <c r="AF191" s="7"/>
+      <c r="AF191" s="11"/>
       <c r="AG191" s="11"/>
-      <c r="AH191" s="11"/>
-    </row>
-    <row r="192" spans="1:34">
+    </row>
+    <row r="192" spans="1:33">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -8329,11 +8132,10 @@
       <c r="AC192" s="11"/>
       <c r="AD192" s="7"/>
       <c r="AE192" s="7"/>
-      <c r="AF192" s="7"/>
+      <c r="AF192" s="11"/>
       <c r="AG192" s="11"/>
-      <c r="AH192" s="11"/>
-    </row>
-    <row r="193" spans="1:34">
+    </row>
+    <row r="193" spans="1:33">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -8365,11 +8167,10 @@
       <c r="AC193" s="11"/>
       <c r="AD193" s="7"/>
       <c r="AE193" s="7"/>
-      <c r="AF193" s="7"/>
+      <c r="AF193" s="11"/>
       <c r="AG193" s="11"/>
-      <c r="AH193" s="11"/>
-    </row>
-    <row r="194" spans="1:34">
+    </row>
+    <row r="194" spans="1:33">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -8401,11 +8202,10 @@
       <c r="AC194" s="11"/>
       <c r="AD194" s="7"/>
       <c r="AE194" s="7"/>
-      <c r="AF194" s="7"/>
+      <c r="AF194" s="11"/>
       <c r="AG194" s="11"/>
-      <c r="AH194" s="11"/>
-    </row>
-    <row r="195" spans="1:34">
+    </row>
+    <row r="195" spans="1:33">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -8437,11 +8237,10 @@
       <c r="AC195" s="11"/>
       <c r="AD195" s="7"/>
       <c r="AE195" s="7"/>
-      <c r="AF195" s="7"/>
+      <c r="AF195" s="11"/>
       <c r="AG195" s="11"/>
-      <c r="AH195" s="11"/>
-    </row>
-    <row r="196" spans="1:34">
+    </row>
+    <row r="196" spans="1:33">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -8473,11 +8272,10 @@
       <c r="AC196" s="11"/>
       <c r="AD196" s="7"/>
       <c r="AE196" s="7"/>
-      <c r="AF196" s="7"/>
+      <c r="AF196" s="11"/>
       <c r="AG196" s="11"/>
-      <c r="AH196" s="11"/>
-    </row>
-    <row r="197" spans="1:34">
+    </row>
+    <row r="197" spans="1:33">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -8509,11 +8307,10 @@
       <c r="AC197" s="11"/>
       <c r="AD197" s="7"/>
       <c r="AE197" s="7"/>
-      <c r="AF197" s="7"/>
+      <c r="AF197" s="11"/>
       <c r="AG197" s="11"/>
-      <c r="AH197" s="11"/>
-    </row>
-    <row r="198" spans="1:34">
+    </row>
+    <row r="198" spans="1:33">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -8545,11 +8342,10 @@
       <c r="AC198" s="11"/>
       <c r="AD198" s="7"/>
       <c r="AE198" s="7"/>
-      <c r="AF198" s="7"/>
+      <c r="AF198" s="11"/>
       <c r="AG198" s="11"/>
-      <c r="AH198" s="11"/>
-    </row>
-    <row r="199" spans="1:34">
+    </row>
+    <row r="199" spans="1:33">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -8581,9 +8377,8 @@
       <c r="AC199" s="11"/>
       <c r="AD199" s="7"/>
       <c r="AE199" s="7"/>
-      <c r="AF199" s="7"/>
+      <c r="AF199" s="11"/>
       <c r="AG199" s="11"/>
-      <c r="AH199" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
